--- a/contratos/contratos-1-2010.xlsx
+++ b/contratos/contratos-1-2010.xlsx
@@ -718,7 +718,7 @@
     <t>FERNANDEZ MARIELA VIVIANA</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>SYLVESTRE CARLOS OMAR</t>
@@ -730,16 +730,16 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>JACOBI SERGIO JAVIER</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -787,7 +787,7 @@
     <t>ORGANIZACION DELASOIE HNOS. S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -1255,520 +1255,520 @@
     <t>44</t>
   </si>
   <si>
-    <t>6.730,00</t>
-  </si>
-  <si>
-    <t>4.016,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>50.001,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>3.896,68</t>
-  </si>
-  <si>
-    <t>1.170,97</t>
-  </si>
-  <si>
-    <t>2.559,86</t>
-  </si>
-  <si>
-    <t>85.539,87</t>
-  </si>
-  <si>
-    <t>82.130,33</t>
-  </si>
-  <si>
-    <t>13.124,00</t>
-  </si>
-  <si>
-    <t>841,98</t>
-  </si>
-  <si>
-    <t>11.614,75</t>
-  </si>
-  <si>
-    <t>1.240,50</t>
-  </si>
-  <si>
-    <t>3.874,77</t>
-  </si>
-  <si>
-    <t>1.622,75</t>
-  </si>
-  <si>
-    <t>4.956,75</t>
-  </si>
-  <si>
-    <t>6.342,83</t>
-  </si>
-  <si>
-    <t>211,20</t>
-  </si>
-  <si>
-    <t>1.443,00</t>
-  </si>
-  <si>
-    <t>128,73</t>
-  </si>
-  <si>
-    <t>6.031,65</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>6.200,10</t>
-  </si>
-  <si>
-    <t>411,21</t>
-  </si>
-  <si>
-    <t>283,52</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
-    <t>817,76</t>
-  </si>
-  <si>
-    <t>1.694,60</t>
-  </si>
-  <si>
-    <t>4.831,20</t>
-  </si>
-  <si>
-    <t>1.168,80</t>
-  </si>
-  <si>
-    <t>135,00</t>
-  </si>
-  <si>
-    <t>1.274,00</t>
-  </si>
-  <si>
-    <t>308,77</t>
-  </si>
-  <si>
-    <t>3.629,00</t>
-  </si>
-  <si>
-    <t>7.331,85</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>1.727,36</t>
-  </si>
-  <si>
-    <t>141,00</t>
-  </si>
-  <si>
-    <t>2.454,87</t>
-  </si>
-  <si>
-    <t>505,55</t>
-  </si>
-  <si>
-    <t>704,20</t>
-  </si>
-  <si>
-    <t>12.910,40</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>168,50</t>
-  </si>
-  <si>
-    <t>1,32</t>
-  </si>
-  <si>
-    <t>6,50</t>
-  </si>
-  <si>
-    <t>19,36</t>
-  </si>
-  <si>
-    <t>162,33</t>
-  </si>
-  <si>
-    <t>147,96</t>
-  </si>
-  <si>
-    <t>986,24</t>
-  </si>
-  <si>
-    <t>1.298,20</t>
-  </si>
-  <si>
-    <t>3.030,00</t>
-  </si>
-  <si>
-    <t>7.838,00</t>
-  </si>
-  <si>
-    <t>92,00</t>
-  </si>
-  <si>
-    <t>1.470,00</t>
-  </si>
-  <si>
-    <t>4.889,20</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>4.602,00</t>
-  </si>
-  <si>
-    <t>1.390,00</t>
-  </si>
-  <si>
-    <t>5.700,00</t>
-  </si>
-  <si>
-    <t>735,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>10.853,20</t>
-  </si>
-  <si>
-    <t>1.747,30</t>
-  </si>
-  <si>
-    <t>373,00</t>
-  </si>
-  <si>
-    <t>781,23</t>
-  </si>
-  <si>
-    <t>1.164,12</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>46,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>2.120,00</t>
-  </si>
-  <si>
-    <t>6.686,01</t>
-  </si>
-  <si>
-    <t>10.945,00</t>
-  </si>
-  <si>
-    <t>3.025,00</t>
-  </si>
-  <si>
-    <t>6.071,40</t>
-  </si>
-  <si>
-    <t>64,00</t>
-  </si>
-  <si>
-    <t>52,50</t>
-  </si>
-  <si>
-    <t>409,19</t>
-  </si>
-  <si>
-    <t>3.213,00</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>1.809,50</t>
-  </si>
-  <si>
-    <t>1.690,00</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>2.631,60</t>
-  </si>
-  <si>
-    <t>89,39</t>
-  </si>
-  <si>
-    <t>722,00</t>
-  </si>
-  <si>
-    <t>2.103,50</t>
-  </si>
-  <si>
-    <t>122,50</t>
-  </si>
-  <si>
-    <t>6.312,75</t>
-  </si>
-  <si>
-    <t>808,00</t>
-  </si>
-  <si>
-    <t>445,25</t>
-  </si>
-  <si>
-    <t>133,19</t>
-  </si>
-  <si>
-    <t>2.977,00</t>
-  </si>
-  <si>
-    <t>1.387,34</t>
-  </si>
-  <si>
-    <t>27.597,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>3.287,00</t>
-  </si>
-  <si>
-    <t>258,00</t>
-  </si>
-  <si>
-    <t>9.580,00</t>
-  </si>
-  <si>
-    <t>5.270,00</t>
-  </si>
-  <si>
-    <t>17.590,00</t>
-  </si>
-  <si>
-    <t>4.235,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>2.070,00</t>
-  </si>
-  <si>
-    <t>256.918,50</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>6.282,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>3.952,17</t>
-  </si>
-  <si>
-    <t>249.901,60</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>1.381,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>642,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.682,00</t>
-  </si>
-  <si>
-    <t>6.643,26</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>2.173,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>62,50</t>
-  </si>
-  <si>
-    <t>1.200,09</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>139,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>732,00</t>
-  </si>
-  <si>
-    <t>185,00</t>
-  </si>
-  <si>
-    <t>738,39</t>
-  </si>
-  <si>
-    <t>2.280,00</t>
-  </si>
-  <si>
-    <t>967,26</t>
-  </si>
-  <si>
-    <t>4.796,00</t>
-  </si>
-  <si>
-    <t>3.050,00</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>215,00</t>
-  </si>
-  <si>
-    <t>59,80</t>
-  </si>
-  <si>
-    <t>2.012,00</t>
-  </si>
-  <si>
-    <t>4.307,55</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>798,00</t>
-  </si>
-  <si>
-    <t>802,00</t>
-  </si>
-  <si>
-    <t>155,50</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>48,24</t>
-  </si>
-  <si>
-    <t>5.418,01</t>
-  </si>
-  <si>
-    <t>884,44</t>
-  </si>
-  <si>
-    <t>19,50</t>
-  </si>
-  <si>
-    <t>898,60</t>
-  </si>
-  <si>
-    <t>1.762,25</t>
-  </si>
-  <si>
-    <t>1.404,00</t>
-  </si>
-  <si>
-    <t>3.259,74</t>
-  </si>
-  <si>
-    <t>1.926,62</t>
-  </si>
-  <si>
-    <t>7.380,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>12.879,00</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>293.309,93</t>
-  </si>
-  <si>
-    <t>9.350,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>4.747,99</t>
-  </si>
-  <si>
-    <t>1.630,00</t>
+    <t>6730.00</t>
+  </si>
+  <si>
+    <t>4016.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>50001.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>3896.68</t>
+  </si>
+  <si>
+    <t>1170.97</t>
+  </si>
+  <si>
+    <t>2559.86</t>
+  </si>
+  <si>
+    <t>85539.87</t>
+  </si>
+  <si>
+    <t>82130.33</t>
+  </si>
+  <si>
+    <t>13124.00</t>
+  </si>
+  <si>
+    <t>841.98</t>
+  </si>
+  <si>
+    <t>11614.75</t>
+  </si>
+  <si>
+    <t>1240.50</t>
+  </si>
+  <si>
+    <t>3874.77</t>
+  </si>
+  <si>
+    <t>1622.75</t>
+  </si>
+  <si>
+    <t>4956.75</t>
+  </si>
+  <si>
+    <t>6342.83</t>
+  </si>
+  <si>
+    <t>211.20</t>
+  </si>
+  <si>
+    <t>1443.00</t>
+  </si>
+  <si>
+    <t>128.73</t>
+  </si>
+  <si>
+    <t>6031.65</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>6200.10</t>
+  </si>
+  <si>
+    <t>411.21</t>
+  </si>
+  <si>
+    <t>283.52</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>817.76</t>
+  </si>
+  <si>
+    <t>1694.60</t>
+  </si>
+  <si>
+    <t>4831.20</t>
+  </si>
+  <si>
+    <t>1168.80</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>1274.00</t>
+  </si>
+  <si>
+    <t>308.77</t>
+  </si>
+  <si>
+    <t>3629.00</t>
+  </si>
+  <si>
+    <t>7331.85</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>1727.36</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>2454.87</t>
+  </si>
+  <si>
+    <t>505.55</t>
+  </si>
+  <si>
+    <t>704.20</t>
+  </si>
+  <si>
+    <t>12910.40</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>168.50</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>19.36</t>
+  </si>
+  <si>
+    <t>162.33</t>
+  </si>
+  <si>
+    <t>147.96</t>
+  </si>
+  <si>
+    <t>986.24</t>
+  </si>
+  <si>
+    <t>1298.20</t>
+  </si>
+  <si>
+    <t>3030.00</t>
+  </si>
+  <si>
+    <t>7838.00</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>1470.00</t>
+  </si>
+  <si>
+    <t>4889.20</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>4602.00</t>
+  </si>
+  <si>
+    <t>1390.00</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>735.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>10853.20</t>
+  </si>
+  <si>
+    <t>1747.30</t>
+  </si>
+  <si>
+    <t>373.00</t>
+  </si>
+  <si>
+    <t>781.23</t>
+  </si>
+  <si>
+    <t>1164.12</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>2120.00</t>
+  </si>
+  <si>
+    <t>6686.01</t>
+  </si>
+  <si>
+    <t>10945.00</t>
+  </si>
+  <si>
+    <t>3025.00</t>
+  </si>
+  <si>
+    <t>6071.40</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>409.19</t>
+  </si>
+  <si>
+    <t>3213.00</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>1809.50</t>
+  </si>
+  <si>
+    <t>1690.00</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>2631.60</t>
+  </si>
+  <si>
+    <t>89.39</t>
+  </si>
+  <si>
+    <t>722.00</t>
+  </si>
+  <si>
+    <t>2103.50</t>
+  </si>
+  <si>
+    <t>122.50</t>
+  </si>
+  <si>
+    <t>6312.75</t>
+  </si>
+  <si>
+    <t>808.00</t>
+  </si>
+  <si>
+    <t>445.25</t>
+  </si>
+  <si>
+    <t>133.19</t>
+  </si>
+  <si>
+    <t>2977.00</t>
+  </si>
+  <si>
+    <t>1387.34</t>
+  </si>
+  <si>
+    <t>27597.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>3287.00</t>
+  </si>
+  <si>
+    <t>258.00</t>
+  </si>
+  <si>
+    <t>9580.00</t>
+  </si>
+  <si>
+    <t>5270.00</t>
+  </si>
+  <si>
+    <t>17590.00</t>
+  </si>
+  <si>
+    <t>4235.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>2070.00</t>
+  </si>
+  <si>
+    <t>256918.50</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>6282.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>3952.17</t>
+  </si>
+  <si>
+    <t>249901.60</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>1381.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>642.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1682.00</t>
+  </si>
+  <si>
+    <t>6643.26</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>2173.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>62.50</t>
+  </si>
+  <si>
+    <t>1200.09</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>139.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>732.00</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>738.39</t>
+  </si>
+  <si>
+    <t>2280.00</t>
+  </si>
+  <si>
+    <t>967.26</t>
+  </si>
+  <si>
+    <t>4796.00</t>
+  </si>
+  <si>
+    <t>3050.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>59.80</t>
+  </si>
+  <si>
+    <t>2012.00</t>
+  </si>
+  <si>
+    <t>4307.55</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>798.00</t>
+  </si>
+  <si>
+    <t>802.00</t>
+  </si>
+  <si>
+    <t>155.50</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>48.24</t>
+  </si>
+  <si>
+    <t>5418.01</t>
+  </si>
+  <si>
+    <t>884.44</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>898.60</t>
+  </si>
+  <si>
+    <t>1762.25</t>
+  </si>
+  <si>
+    <t>1404.00</t>
+  </si>
+  <si>
+    <t>3259.74</t>
+  </si>
+  <si>
+    <t>1926.62</t>
+  </si>
+  <si>
+    <t>7380.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>12879.00</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>293309.93</t>
+  </si>
+  <si>
+    <t>9350.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>4747.99</t>
+  </si>
+  <si>
+    <t>1630.00</t>
   </si>
 </sst>
 </file>
